--- a/docs/testCases/secondSprint/TestCase-Footer-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Footer-Functionality.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\SecondSprint\testCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam PayApi Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD180BE-B66D-4ED6-A714-A5669049EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956D3C0-A910-4850-93F0-6213C73830BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="5370" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="7890" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -100,6 +100,135 @@
   </si>
   <si>
     <t>Navigation Functionality</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>This link should redirect me to main page</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Should take you back to the main page</t>
+  </si>
+  <si>
+    <t>Click on "Pricing" link while on any other page</t>
+  </si>
+  <si>
+    <t>Click on company logo while on any other page</t>
+  </si>
+  <si>
+    <t>Click on company logo while on main page</t>
+  </si>
+  <si>
+    <t>Should refresh home page and take you to the top</t>
+  </si>
+  <si>
+    <t>Should take you to the "Pricing" page</t>
+  </si>
+  <si>
+    <t>Click on "Pricing" link while on any "Pricing" page</t>
+  </si>
+  <si>
+    <t>Should refresh "Pricing" page and take you to the top</t>
+  </si>
+  <si>
+    <t>Click on "About" link while on any other page</t>
+  </si>
+  <si>
+    <t>Should take you to the "About" page</t>
+  </si>
+  <si>
+    <t>Click on "About" link while on any "About" page</t>
+  </si>
+  <si>
+    <t>Should refresh "About" page and take you to the top</t>
+  </si>
+  <si>
+    <t>Click on "Contact" link while on any other page</t>
+  </si>
+  <si>
+    <t>Should take you to the "Contact" page</t>
+  </si>
+  <si>
+    <t>Click on "Contact" link while on any "Contact" page</t>
+  </si>
+  <si>
+    <t>Should refresh "Contact" page and take you to the top</t>
+  </si>
+  <si>
+    <t>Click on "Facebook" icon.</t>
+  </si>
+  <si>
+    <t>Should take you to Facebook main page</t>
+  </si>
+  <si>
+    <t>Click on "Twitter" icon.</t>
+  </si>
+  <si>
+    <t>Should take you to Twitter main page</t>
+  </si>
+  <si>
+    <t>Click on "Linkedin" icon.</t>
+  </si>
+  <si>
+    <t>Should take you to Linkedin main page</t>
+  </si>
+  <si>
+    <t>Go to the web pagelink: https://stranger-team-pay-api-project.vercel.app/</t>
+  </si>
+  <si>
+    <t>All links/buttons/forms are active an takes user to correct pages and react to user input</t>
+  </si>
+  <si>
+    <t>Hover on links "Pricing", "About" and "Contact"</t>
+  </si>
+  <si>
+    <t>Links should change color to white</t>
+  </si>
+  <si>
+    <t>Hover on icons "Facebook", "Twitter" and "Linkedin"</t>
+  </si>
+  <si>
+    <t>Icons should change color to pink(acording to design)</t>
+  </si>
+  <si>
+    <t>Hover on "Schedule a demo" button</t>
+  </si>
+  <si>
+    <t>Button should change color and become brighter</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Button changes color to dark grey</t>
+  </si>
+  <si>
+    <t>Enter email into input form</t>
+  </si>
+  <si>
+    <t>Form should take text input</t>
+  </si>
+  <si>
+    <t>Hover on all links, icons and button and form</t>
+  </si>
+  <si>
+    <t>Mouse cursor should change to hand on any active link, button, icon and to text cursor on form input</t>
+  </si>
+  <si>
+    <t>Type into form</t>
+  </si>
+  <si>
+    <t>text should become darker</t>
+  </si>
+  <si>
+    <t>text does not become darker it stays default</t>
   </si>
 </sst>
 </file>
@@ -245,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -279,20 +408,52 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -307,48 +468,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,26 +760,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
@@ -660,25 +790,25 @@
       <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -694,10 +824,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -722,23 +852,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -757,28 +889,28 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="15"/>
@@ -787,7 +919,7 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -797,7 +929,7 @@
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="15"/>
@@ -806,7 +938,7 @@
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -816,7 +948,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="15"/>
@@ -825,7 +957,7 @@
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
@@ -835,7 +967,7 @@
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="15"/>
@@ -844,7 +976,7 @@
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -854,7 +986,7 @@
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="15"/>
@@ -863,7 +995,7 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -873,14 +1005,16 @@
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="27"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -890,7 +1024,9 @@
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -901,7 +1037,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -914,134 +1050,550 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="J20" s="15"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
+      <c r="I22" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="J22" s="15"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
+      <c r="B23" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
+      <c r="I23" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="14"/>
+      <c r="I24" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
+      <c r="B25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="G25" s="15"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="J25" s="15"/>
       <c r="K25" s="16"/>
     </row>
+    <row r="26" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>7</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>8</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>9</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>10</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>11</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>12</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="37"/>
+    </row>
+    <row r="32" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>13</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>14</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>16</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>15</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>16</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>17</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="K37" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="105">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1056,49 +1608,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/testCases/secondSprint/TestCase-Footer-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Footer-Functionality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam PayApi Project\docs\testCases\secondSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C956D3C0-A910-4850-93F0-6213C73830BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFFF82E-A4FD-4EFF-A1C1-F8D694BE4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="7890" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="5250" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Navigation Functionality</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>text does not become darker it stays default</t>
+  </si>
+  <si>
+    <t>Footer Functionality</t>
   </si>
 </sst>
 </file>
@@ -407,14 +407,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -422,38 +421,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -468,17 +437,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,52 +763,52 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:H36"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -824,10 +824,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -852,25 +852,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="17" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="12"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -889,143 +889,143 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1051,543 +1051,458 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="27" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="27" t="s">
+      <c r="B21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="27" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="27" t="s">
+      <c r="B23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="27" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="27" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>7</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="27" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>8</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="27" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>9</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="27" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>10</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="27" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>11</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="27" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>12</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="27" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="37"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>13</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="34" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>14</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="27" t="s">
+      <c r="E33" s="13"/>
+      <c r="F33" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>16</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="27" t="s">
+      <c r="E34" s="13"/>
+      <c r="F34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>15</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="27" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>16</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="34" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>17</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="27" t="s">
+      <c r="E37" s="13"/>
+      <c r="F37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
@@ -1608,6 +1523,91 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/testCases/secondSprint/TestCase-Footer-Functionality.xlsx
+++ b/docs/testCases/secondSprint/TestCase-Footer-Functionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektas\StrangerTeam_PayApi_Project\docs\testCases\secondSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFFF82E-A4FD-4EFF-A1C1-F8D694BE4348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B41525-16EF-4CE0-93BB-E217710B93A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9045" yWindow="5250" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7485" yWindow="5145" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,10 +408,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -422,7 +430,31 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -437,47 +469,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -763,52 +763,52 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="31" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="32" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="33"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -824,10 +824,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -852,25 +852,25 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="31" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="30"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -889,136 +889,136 @@
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9">
         <v>6</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1051,458 +1051,543 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="15" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="15" t="s">
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="15" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="15" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>5</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="35"/>
+      <c r="F25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="15" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>7</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="35"/>
+      <c r="F26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="15" t="s">
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>8</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="35"/>
+      <c r="F27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="15" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>9</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="15" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>10</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="35"/>
+      <c r="F29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="15" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>11</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="15" t="s">
+      <c r="E30" s="35"/>
+      <c r="F30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="15" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>12</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="35"/>
+      <c r="F31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="15" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>13</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15" t="s">
+      <c r="E32" s="35"/>
+      <c r="F32" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="15" t="s">
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
     </row>
     <row r="33" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>14</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="15" t="s">
+      <c r="E33" s="35"/>
+      <c r="F33" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="15" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
     </row>
     <row r="34" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>16</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="15" t="s">
+      <c r="E34" s="35"/>
+      <c r="F34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="15" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>15</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="36"/>
+      <c r="D35" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="15" t="s">
+      <c r="E35" s="35"/>
+      <c r="F35" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="15" t="s">
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>16</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13" t="s">
+      <c r="C36" s="36"/>
+      <c r="D36" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="15" t="s">
+      <c r="E36" s="35"/>
+      <c r="F36" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="15" t="s">
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>17</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="35"/>
+      <c r="F37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="15" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
@@ -1523,91 +1608,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
